--- a/biology/Médecine/1147_en_santé_et_médecine/1147_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1147_en_santé_et_médecine/1147_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1147_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1147_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1147 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1147_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1147_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de l'hôpital de Pantenor, à Clamecy, par Guillaume II, comte de Nevers[1].
-Fondation d'un hôpital à Vevey, au pays de Vaud, par les chanoines du Saint-Bernard[2].
-Fondation par Roger de Fraxino, connétable du roi Étienne, de la léproserie St. James, située entre les paroisses de Seaford et de Blatchington (en) dans le Sussex en Angleterre[3].
-Une maladrerie Saint-Blaise est attestée à  Tonnerre, en Bourgogne[4].
-Une léproserie est attestée à Houdan, sur les terres de Monfort[5], établissement qui est à l'origine de l'actuel hôpital de la ville[6].
-Consécration de la chapelle léproserie de Gand par Anselme, évêque de Tournai[7].
-1147-1148 : Mathilde de Boulogne, reine d'Angleterre, fonde St. Katharine's Hospital (en), à Londres[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de l'hôpital de Pantenor, à Clamecy, par Guillaume II, comte de Nevers.
+Fondation d'un hôpital à Vevey, au pays de Vaud, par les chanoines du Saint-Bernard.
+Fondation par Roger de Fraxino, connétable du roi Étienne, de la léproserie St. James, située entre les paroisses de Seaford et de Blatchington (en) dans le Sussex en Angleterre.
+Une maladrerie Saint-Blaise est attestée à  Tonnerre, en Bourgogne.
+Une léproserie est attestée à Houdan, sur les terres de Monfort, établissement qui est à l'origine de l'actuel hôpital de la ville.
+Consécration de la chapelle léproserie de Gand par Anselme, évêque de Tournai.
+1147-1148 : Mathilde de Boulogne, reine d'Angleterre, fonde St. Katharine's Hospital (en), à Londres.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1147_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1147_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vers 1147 : naissance de Raoul II, comte de Vermandois qui, atteint de la lèpre, mourra sans enfants en 1167 et dont les provinces passeront aux mains de Philippe d'Alsace, comte de Flandre[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vers 1147 : naissance de Raoul II, comte de Vermandois qui, atteint de la lèpre, mourra sans enfants en 1167 et dont les provinces passeront aux mains de Philippe d'Alsace, comte de Flandre.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1147_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1147_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1146 ou 1147 : Robert (né à une date inconnue), médecin de Suger, abbé de Saint-Denis[10]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1146 ou 1147 : Robert (né à une date inconnue), médecin de Suger, abbé de Saint-Denis
 </t>
         </is>
       </c>
